--- a/Interfaces_lab4/Лаб4.xlsx
+++ b/Interfaces_lab4/Лаб4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danya\Desktop\учебка\интерфейсы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59E7EEE-EE45-42DF-A0C6-1F6EE8A18922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5968C3F8-242E-4CE6-9058-5C393C2E2A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Критерий</t>
   </si>
@@ -36,27 +36,12 @@
     <t>Расположение элементов управления</t>
   </si>
   <si>
-    <t>Размеры элементов управления</t>
-  </si>
-  <si>
-    <t>Количество элементов в одном интерфейсе</t>
-  </si>
-  <si>
     <t>Информационная зашумленность</t>
   </si>
   <si>
     <t xml:space="preserve">Группировка связанных элементов </t>
   </si>
   <si>
-    <t>Расстояния до элементов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обработка опечаток </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Моторные ошибки                             </t>
-  </si>
-  <si>
     <t>Скругленные элементы</t>
   </si>
   <si>
@@ -78,52 +63,124 @@
     <t xml:space="preserve">Использование метафор   </t>
   </si>
   <si>
-    <t>Изменение свойств элементов при взаимодействии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зрительная принадлежность </t>
-  </si>
-  <si>
     <t xml:space="preserve">Соответствие стандартам </t>
   </si>
   <si>
     <t>Скорость работы</t>
   </si>
   <si>
-    <t>Ошибки пользователя</t>
-  </si>
-  <si>
-    <t>Скорость загрузки страниц</t>
-  </si>
-  <si>
-    <t>Скорость поиска</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Использование индикации ошибок </t>
-  </si>
-  <si>
-    <t>Наличие моторных ошибок</t>
-  </si>
-  <si>
-    <t>Субъективная удовлетворённость</t>
-  </si>
-  <si>
     <t>Наличие пространства между элементами</t>
   </si>
   <si>
     <t>Возможность использования разных типов логинов</t>
   </si>
   <si>
-    <t>Оптимальное количество информации</t>
-  </si>
-  <si>
     <t>Аспекты</t>
   </si>
   <si>
-    <t>Скорость обучения</t>
-  </si>
-  <si>
     <t>Понятность метафор</t>
+  </si>
+  <si>
+    <t>Управляющие элементы</t>
+  </si>
+  <si>
+    <t>Заголовки окон соответствуют содержимому и вызывающим элементам</t>
+  </si>
+  <si>
+    <t>Количество элементов в одном окне адекватное</t>
+  </si>
+  <si>
+    <t>Переход фокуса: сверху вниз</t>
+  </si>
+  <si>
+    <t>Зрительная принадлежность элементов своему расположению</t>
+  </si>
+  <si>
+    <t>Взаимодействие с пользователем</t>
+  </si>
+  <si>
+    <t>Запоминание пароля</t>
+  </si>
+  <si>
+    <t>Использование индикации ошибок в полях ввода</t>
+  </si>
+  <si>
+    <t>Индикация недоступности элементов изменением цвета</t>
+  </si>
+  <si>
+    <t>Распознавание неверной раскладки</t>
+  </si>
+  <si>
+    <t>Обработка ошибок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Распознавание опечаток </t>
+  </si>
+  <si>
+    <t>Обучение пользователя</t>
+  </si>
+  <si>
+    <t>Требования к дизайну</t>
+  </si>
+  <si>
+    <t>Поиск</t>
+  </si>
+  <si>
+    <t>Наличие фильтрации текстом</t>
+  </si>
+  <si>
+    <t>Наличие фильтрации по типу результата</t>
+  </si>
+  <si>
+    <t>Поиск по изображению</t>
+  </si>
+  <si>
+    <t>История поиска</t>
+  </si>
+  <si>
+    <t>Рекомендации по поисковому запросу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возможность моторных ошибок                             </t>
+  </si>
+  <si>
+    <t>Скорость поиска человека не более 3с</t>
+  </si>
+  <si>
+    <t>Одинаковые диапазоны текстовых полей</t>
+  </si>
+  <si>
+    <t>Одинаковая высота текстовых полей</t>
+  </si>
+  <si>
+    <t>Наличие подписей у всех элементов</t>
+  </si>
+  <si>
+    <t>Все подписи выравнены по высоте и ширине</t>
+  </si>
+  <si>
+    <t>Табуляция сделана так, что все элементы доступны</t>
+  </si>
+  <si>
+    <t>Табуляция сделана логично</t>
+  </si>
+  <si>
+    <t>Размеры элементов управления достаточно велики</t>
+  </si>
+  <si>
+    <t>При взаимодействии с элементами их цвет меняется</t>
+  </si>
+  <si>
+    <t>При взаимодейсвтии с элементами цвет их фона меняется</t>
+  </si>
+  <si>
+    <t>Цвет подписей не конфликтует с цветами элементов</t>
+  </si>
+  <si>
+    <t>Скорость загрузки страниц в приемлемых рамках</t>
+  </si>
+  <si>
+    <t>Текстовые поля выровнены по высоте и ширине</t>
   </si>
 </sst>
 </file>
@@ -147,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -207,11 +264,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -231,6 +319,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,16 +620,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.85546875" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -537,263 +638,459 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.05</v>
+      <c r="A2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.04</v>
+      <c r="A4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.05</v>
+        <v>38</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="11">
         <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C8" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="10">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.06</v>
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5">
         <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0.01</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5">
         <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.04</v>
+      <c r="C17" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.02</v>
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="10">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
         <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.02</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="10">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0.05</v>
-      </c>
-    </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.03</v>
+      <c r="A23" s="5"/>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.03</v>
+        <v>43</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0.05</v>
+        <v>49</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.04</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="10">
+        <v>42</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="5">
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3" t="s">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="11">
-        <v>0.03</v>
+      <c r="C30" s="11">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A23:A27"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C27">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C4:C5 C43 C12:C17 C34:C41 C31:C32">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C43">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
